--- a/branches/CarePlan---ARVTreatment-Resource-dev--FIG-44/StructureDefinition-art-regimen-line.xlsx
+++ b/branches/CarePlan---ARVTreatment-Resource-dev--FIG-44/StructureDefinition-art-regimen-line.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-07T13:02:45+00:00</t>
+    <t>2023-02-07T15:19:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/CarePlan---ARVTreatment-Resource-dev--FIG-44/StructureDefinition-art-regimen-line.xlsx
+++ b/branches/CarePlan---ARVTreatment-Resource-dev--FIG-44/StructureDefinition-art-regimen-line.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-07T15:19:32+00:00</t>
+    <t>2023-02-08T12:09:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/CarePlan---ARVTreatment-Resource-dev--FIG-44/StructureDefinition-art-regimen-line.xlsx
+++ b/branches/CarePlan---ARVTreatment-Resource-dev--FIG-44/StructureDefinition-art-regimen-line.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T12:09:05+00:00</t>
+    <t>2023-02-08T14:26:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/CarePlan---ARVTreatment-Resource-dev--FIG-44/StructureDefinition-art-regimen-line.xlsx
+++ b/branches/CarePlan---ARVTreatment-Resource-dev--FIG-44/StructureDefinition-art-regimen-line.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="112">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T14:26:19+00:00</t>
+    <t>2023-02-08T15:31:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -253,9 +253,6 @@
 </t>
   </si>
   <si>
-    <t>An Extension</t>
-  </si>
-  <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
@@ -287,6 +284,9 @@
   <si>
     <t xml:space="preserve">Extension
 </t>
+  </si>
+  <si>
+    <t>An Extension</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
@@ -592,7 +592,9 @@
       <c r="A12" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>9</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
@@ -863,7 +865,7 @@
         <v>9</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -923,7 +925,7 @@
         <v>77</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>75</v>
@@ -934,10 +936,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -948,25 +950,25 @@
         <v>76</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K3" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1017,13 +1019,13 @@
         <v>75</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>75</v>
@@ -1032,15 +1034,15 @@
         <v>75</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1063,13 +1065,13 @@
         <v>75</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L4" t="s" s="2">
         <v>29</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1151,10 +1153,10 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>75</v>
@@ -1228,10 +1230,10 @@
         <v>95</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>75</v>
@@ -1259,7 +1261,7 @@
         <v>76</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>75</v>
@@ -1332,7 +1334,7 @@
         <v>76</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>75</v>
@@ -1362,7 +1364,7 @@
         <v>76</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>75</v>
@@ -1435,7 +1437,7 @@
         <v>76</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>75</v>

--- a/branches/CarePlan---ARVTreatment-Resource-dev--FIG-44/StructureDefinition-art-regimen-line.xlsx
+++ b/branches/CarePlan---ARVTreatment-Resource-dev--FIG-44/StructureDefinition-art-regimen-line.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T15:31:30+00:00</t>
+    <t>2023-02-09T07:17:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/CarePlan---ARVTreatment-Resource-dev--FIG-44/StructureDefinition-art-regimen-line.xlsx
+++ b/branches/CarePlan---ARVTreatment-Resource-dev--FIG-44/StructureDefinition-art-regimen-line.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T07:17:47+00:00</t>
+    <t>2023-02-09T10:24:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
